--- a/Documentation/APD-QuickSort-Results.xlsx
+++ b/Documentation/APD-QuickSort-Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\An3Sem2\APD\APD-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB97BEF-2E65-4CCA-AAAA-8B65AE82CFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91414AFF-B96F-40FA-BD2A-0132811498A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4410C24E-8102-4910-8283-7431715B20FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Size</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Parallel I</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>ParallelStream</t>
+  </si>
+  <si>
+    <t>Normal Reading</t>
   </si>
 </sst>
 </file>
@@ -1630,6 +1642,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="963836368"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1722,6 +1735,2550 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI QuickSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E9C-4829-8224-1A126FF30019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(miliseconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E9C-4829-8224-1A126FF30019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1407609455"/>
+        <c:axId val="1407614863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1407609455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407614863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1407614863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407609455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP QuickSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$84:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-859F-4760-B4A9-FD6488F8BC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(miliseconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-859F-4760-B4A9-FD6488F8BC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1400289247"/>
+        <c:axId val="1400288831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1400289247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400288831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400288831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400289247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> QuickSort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$99:$A$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB10-425E-B2C4-BAB52BEA772B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(miliseconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$99:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB10-425E-B2C4-BAB52BEA772B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1481926367"/>
+        <c:axId val="1481927615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1481926367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481927615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1481927615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481926367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$119:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DBC-4643-997F-1A2E9BC05FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$119:$C$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DBC-4643-997F-1A2E9BC05FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$119:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DBC-4643-997F-1A2E9BC05FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1440483887"/>
+        <c:axId val="1440483471"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$119:$A$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DBC-4643-997F-1A2E9BC05FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1404777823"/>
+        <c:axId val="1292158527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1440483887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440483471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1440483471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440483887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1292158527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404777823"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1404777823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1292158527"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ParallelStream</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Normal Reading</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelStream</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$139:$B$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F636-4366-9F91-77C2B27885C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal Reading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$139:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F636-4366-9F91-77C2B27885C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1483666783"/>
+        <c:axId val="1483665535"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$139:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F636-4366-9F91-77C2B27885C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1395660143"/>
+        <c:axId val="1395665135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1483666783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483665535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1483665535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483666783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1395665135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395660143"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1395660143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1395665135"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1871,6 +4428,197 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3380,19 +6128,2534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3420,15 +8683,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3458,14 +8721,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3485,6 +8748,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C1A9EB-E9DD-464C-B990-1B604C33C721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B61B48-FC63-48D9-8E33-402C87FB01C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215E2824-1171-4300-874A-8AD45B54CC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBCEF828-FEC4-451D-BBF8-5C2885B88139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BFAD98-7CC0-4067-902B-B56CFC572113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3790,10 +9233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE042483-5474-46B6-8596-2B9292A0B5C8}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T142" activeCellId="1" sqref="O160 T142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,6 +9515,496 @@
         <v>5318</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>100</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1000</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10000</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>50000</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>100000</v>
+      </c>
+      <c r="B74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>500000</v>
+      </c>
+      <c r="B75">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1000000</v>
+      </c>
+      <c r="B76">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5000000</v>
+      </c>
+      <c r="B77">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10000000</v>
+      </c>
+      <c r="B78">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>100</v>
+      </c>
+      <c r="B84">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1000</v>
+      </c>
+      <c r="B85">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10000</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>50000</v>
+      </c>
+      <c r="B87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>100000</v>
+      </c>
+      <c r="B88">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>500000</v>
+      </c>
+      <c r="B89">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1000000</v>
+      </c>
+      <c r="B90">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5000000</v>
+      </c>
+      <c r="B91">
+        <v>7459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10000000</v>
+      </c>
+      <c r="B92">
+        <v>18827</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1000</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10000</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>50000</v>
+      </c>
+      <c r="B102">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100000</v>
+      </c>
+      <c r="B103">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>500000</v>
+      </c>
+      <c r="B104">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1000000</v>
+      </c>
+      <c r="B105">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5000000</v>
+      </c>
+      <c r="B106">
+        <v>17003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>10000000</v>
+      </c>
+      <c r="B107">
+        <v>55665</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>100</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1000</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10000</v>
+      </c>
+      <c r="B121">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>50000</v>
+      </c>
+      <c r="B122">
+        <v>108</v>
+      </c>
+      <c r="C122">
+        <v>23</v>
+      </c>
+      <c r="D122">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>100000</v>
+      </c>
+      <c r="B123">
+        <v>175</v>
+      </c>
+      <c r="C123">
+        <v>43</v>
+      </c>
+      <c r="D123">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>500000</v>
+      </c>
+      <c r="B124">
+        <v>1106</v>
+      </c>
+      <c r="C124">
+        <v>146</v>
+      </c>
+      <c r="D124">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1000000</v>
+      </c>
+      <c r="B125">
+        <v>2260</v>
+      </c>
+      <c r="C125">
+        <v>378</v>
+      </c>
+      <c r="D125">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5000000</v>
+      </c>
+      <c r="B126">
+        <v>17003</v>
+      </c>
+      <c r="C126">
+        <v>1907</v>
+      </c>
+      <c r="D126">
+        <v>7459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>10000000</v>
+      </c>
+      <c r="B127">
+        <v>55665</v>
+      </c>
+      <c r="C127">
+        <v>3897</v>
+      </c>
+      <c r="D127">
+        <v>18827</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>100</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1000</v>
+      </c>
+      <c r="B140">
+        <v>63</v>
+      </c>
+      <c r="C140">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>10000</v>
+      </c>
+      <c r="B141">
+        <v>142</v>
+      </c>
+      <c r="C141">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>50000</v>
+      </c>
+      <c r="B142">
+        <v>263</v>
+      </c>
+      <c r="C142">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>100000</v>
+      </c>
+      <c r="B143">
+        <v>309</v>
+      </c>
+      <c r="C143">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>500000</v>
+      </c>
+      <c r="B144">
+        <v>680</v>
+      </c>
+      <c r="C144">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1000000</v>
+      </c>
+      <c r="B145">
+        <v>911</v>
+      </c>
+      <c r="C145">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5000000</v>
+      </c>
+      <c r="B146">
+        <v>3754</v>
+      </c>
+      <c r="C146">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>10000000</v>
+      </c>
+      <c r="B147">
+        <v>6836</v>
+      </c>
+      <c r="C147">
+        <v>9476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
